--- a/data/rmfk2.xlsx
+++ b/data/rmfk2.xlsx
@@ -17,81 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>1998 Q4</t>
-  </si>
-  <si>
-    <t>1999 Q4</t>
-  </si>
-  <si>
-    <t>2000 Q4</t>
-  </si>
-  <si>
-    <t>2001 Q4</t>
-  </si>
-  <si>
-    <t>2002 Q4</t>
-  </si>
-  <si>
-    <t>2003 Q4</t>
-  </si>
-  <si>
-    <t>2004 Q4</t>
-  </si>
-  <si>
-    <t>2005 Q4</t>
-  </si>
-  <si>
-    <t>2006 Q4</t>
-  </si>
-  <si>
-    <t>2007 Q4</t>
-  </si>
-  <si>
-    <t>2008 Q4</t>
-  </si>
-  <si>
-    <t>2009 Q4</t>
-  </si>
-  <si>
-    <t>2010 Q4</t>
-  </si>
-  <si>
-    <t>2011 Q4</t>
-  </si>
-  <si>
-    <t>2012 Q4</t>
-  </si>
-  <si>
-    <t>2013 Q4</t>
-  </si>
-  <si>
-    <t>2014 Q4</t>
-  </si>
-  <si>
-    <t>2015 Q4</t>
-  </si>
-  <si>
-    <t>2016 Q4</t>
-  </si>
-  <si>
-    <t>2017 Q4</t>
-  </si>
-  <si>
-    <t>2018 Q4</t>
-  </si>
-  <si>
-    <t>2019 Q4</t>
-  </si>
-  <si>
-    <t>2020 Q4</t>
-  </si>
-  <si>
-    <t>2021 Q4</t>
   </si>
   <si>
     <t>rgdp</t>
@@ -442,199 +370,199 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>1998</v>
       </c>
       <c r="B2" s="2">
-        <v>69.881537612270293</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>1999</v>
       </c>
       <c r="B3" s="2">
-        <v>69.170404559319607</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>2000</v>
       </c>
       <c r="B4" s="2">
-        <v>75.146628563075694</v>
+        <v>73.099999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="1">
+        <v>2001</v>
       </c>
       <c r="B5" s="2">
-        <v>67.534931764922902</v>
+        <v>68.900000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="1">
+        <v>2002</v>
       </c>
       <c r="B6" s="2">
-        <v>75.691615590791201</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="1">
+        <v>2003</v>
       </c>
       <c r="B7" s="2">
-        <v>80.540173019993603</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="1">
+        <v>2004</v>
       </c>
       <c r="B8" s="2">
-        <v>87.029867963811796</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="1">
+        <v>2005</v>
       </c>
       <c r="B9" s="2">
-        <v>95.783131873614195</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="1">
+        <v>2006</v>
       </c>
       <c r="B10" s="2">
-        <v>101.316752360377</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="1">
+        <v>2007</v>
       </c>
       <c r="B11" s="2">
-        <v>107.363525855326</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="1">
+        <v>2008</v>
       </c>
       <c r="B12" s="2">
-        <v>101.177001311262</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="1">
+        <v>2009</v>
       </c>
       <c r="B13" s="2">
-        <v>103.633694948955</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="1">
+        <v>2010</v>
       </c>
       <c r="B14" s="2">
-        <v>113.55926590127601</v>
+        <v>108.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="1">
+        <v>2011</v>
       </c>
       <c r="B15" s="2">
-        <v>124.14401875814799</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="1">
+        <v>2012</v>
       </c>
       <c r="B16" s="2">
-        <v>129.41552559637299</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="1">
+        <v>2013</v>
       </c>
       <c r="B17" s="2">
-        <v>139.39770638057701</v>
+        <v>137.19999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="1">
+        <v>2014</v>
       </c>
       <c r="B18" s="2">
-        <v>146.53173400042201</v>
+        <v>143.9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="1">
+        <v>2015</v>
       </c>
       <c r="B19" s="2">
-        <v>155.49517585024299</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="1">
+        <v>2016</v>
       </c>
       <c r="B20" s="2">
-        <v>162.222191632217</v>
+        <v>157.6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="1">
+        <v>2017</v>
       </c>
       <c r="B21" s="2">
-        <v>173.95694716391</v>
+        <v>169.3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="1">
+        <v>2018</v>
       </c>
       <c r="B22" s="2">
-        <v>169.21493682656501</v>
+        <v>174.5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="1">
+        <v>2019</v>
       </c>
       <c r="B23" s="2">
-        <v>178.450258221946</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="1">
+        <v>2020</v>
       </c>
       <c r="B24" s="2">
-        <v>188.565987652909</v>
+        <v>179.1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="1">
+        <v>2021</v>
       </c>
       <c r="B25" s="2">
-        <v>205.91177138376699</v>
+        <v>199.9</v>
       </c>
     </row>
   </sheetData>
